--- a/biology/Médecine/Sandrine_Roulland/Sandrine_Roulland.xlsx
+++ b/biology/Médecine/Sandrine_Roulland/Sandrine_Roulland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandrine Roulland, née en 1976,  est chargée de recherches en biologie à l'Inserm. Elle est titulaire de la médaille de bronze de l'Institut des sciences biologiques.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sandrine Roulland soutient en 2000 une thèse d'exercice en pharmacie à l'université de Caen, puis, en 2003, une thèse de recherche en sciences, intitulée « Translocation T(14;18) dans les lymphocytes périphériques d'individus en bonne santé : cinétique d'évolution et influence de l'exposition professionnelle agricole »[1], sur les risques de cancer chez les agriculteurs, en lien avec leur exposition à des engrais chimiques.
-Depuis 2008, elle est chercheuse à l'Inserm, membre de l'équipe Genomic instability and Human Hemopathies du centre d'immunologie de Marseille-Luminy[2] En 2015, elle obtient la médaille de bronze du CNRS, qui récompense un premier travail scientifique. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandrine Roulland soutient en 2000 une thèse d'exercice en pharmacie à l'université de Caen, puis, en 2003, une thèse de recherche en sciences, intitulée « Translocation T(14;18) dans les lymphocytes périphériques d'individus en bonne santé : cinétique d'évolution et influence de l'exposition professionnelle agricole », sur les risques de cancer chez les agriculteurs, en lien avec leur exposition à des engrais chimiques.
+Depuis 2008, elle est chercheuse à l'Inserm, membre de l'équipe Genomic instability and Human Hemopathies du centre d'immunologie de Marseille-Luminy En 2015, elle obtient la médaille de bronze du CNRS, qui récompense un premier travail scientifique. 
 </t>
         </is>
       </c>
